--- a/pos_project/database/양식샘플-테이블명세-양식.xlsx
+++ b/pos_project/database/양식샘플-테이블명세-양식.xlsx
@@ -855,6 +855,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -862,9 +865,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1880,10 +1880,10 @@
         <v>12</v>
       </c>
       <c r="I2" s="34"/>
-      <c r="J2" s="39">
+      <c r="J2" s="36">
         <v>44438</v>
       </c>
-      <c r="K2" s="36"/>
+      <c r="K2" s="37"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -1903,10 +1903,10 @@
         <v>13</v>
       </c>
       <c r="I3" s="35"/>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="38"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="19"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2401,7 +2401,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3069,10 +3069,10 @@
         <v>12</v>
       </c>
       <c r="I2" s="34"/>
-      <c r="J2" s="39">
+      <c r="J2" s="36">
         <v>44438</v>
       </c>
-      <c r="K2" s="36"/>
+      <c r="K2" s="37"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
@@ -3092,10 +3092,10 @@
         <v>13</v>
       </c>
       <c r="I3" s="35"/>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="38"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="19"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -3605,12 +3605,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
